--- a/scientisttools/datasets/children.xlsx
+++ b/scientisttools/datasets/children.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="31">
   <si>
     <t>rownames</t>
   </si>
@@ -4061,7 +4061,16 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -4069,7 +4078,16 @@
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3">
+        <v>59.0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>66.0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>70.0</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4077,7 +4095,16 @@
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3">
+        <v>115.0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>117.0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>86.0</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4085,7 +4112,16 @@
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3">
+        <v>79.0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>88.0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>177.0</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4093,7 +4129,16 @@
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="C5" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4101,7 +4146,16 @@
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>17.0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>18.0</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4109,7 +4163,16 @@
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3">
+        <v>18.0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>19.0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>17.0</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4117,7 +4180,16 @@
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>34.0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>61.0</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4125,7 +4197,16 @@
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3">
+        <v>21.0</v>
+      </c>
+      <c r="C9" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>28.0</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4133,7 +4214,16 @@
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="D10" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4141,7 +4231,16 @@
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="C11" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="D11" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4149,7 +4248,16 @@
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>27.0</v>
+      </c>
+      <c r="D12" s="3">
+        <v>17.0</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4157,7 +4265,16 @@
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3">
+        <v>48.0</v>
+      </c>
+      <c r="C13" s="3">
+        <v>59.0</v>
+      </c>
+      <c r="D13" s="3">
+        <v>52.0</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4165,7 +4282,16 @@
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="C14" s="3">
+        <v>29.0</v>
+      </c>
+      <c r="D14" s="3">
+        <v>53.0</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4173,7 +4299,16 @@
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="C15" s="3">
+        <v>63.0</v>
+      </c>
+      <c r="D15" s="3">
+        <v>58.0</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>29</v>
       </c>
     </row>
